--- a/Задание 4/4_12_RES4_It_Trashko.xlsx
+++ b/Задание 4/4_12_RES4_It_Trashko.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10530" activeTab="1"/>
+    <workbookView xWindow="450" yWindow="60" windowWidth="19425" windowHeight="10530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4.1" sheetId="2" r:id="rId1"/>
@@ -1472,64 +1472,64 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>8.8623669034359032E-2</c:v>
+                  <c:v>0.89991000444989111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78143967932854164</c:v>
+                  <c:v>0.57669061738316985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34775161478074768</c:v>
+                  <c:v>0.46271855468910739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77487145597344875</c:v>
+                  <c:v>0.10181792420196167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24598703496600882</c:v>
+                  <c:v>3.192952747817368E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2284470635168852E-3</c:v>
+                  <c:v>0.96249630342295556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95814359356253254</c:v>
+                  <c:v>0.81155678470553971</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94590955526251774</c:v>
+                  <c:v>0.22649854283427973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52931826278459593</c:v>
+                  <c:v>0.44461785729194414</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91277532272182116</c:v>
+                  <c:v>0.62054722614934943</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.12491840786755803</c:v>
+                  <c:v>0.93869512832849855</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3656448774479566</c:v>
+                  <c:v>0.87718423720868144</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95440526224867295</c:v>
+                  <c:v>0.36839129576747731</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.67429728122366106</c:v>
+                  <c:v>0.52941449785985795</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1880497646432262</c:v>
+                  <c:v>0.72140219524145111</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.27211049813789678</c:v>
+                  <c:v>0.24385210770062915</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.62054982766613898</c:v>
+                  <c:v>2.0840685997615238E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.76172660157955152</c:v>
+                  <c:v>7.8220089479253185E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.37665184460409706</c:v>
+                  <c:v>0.4385724074414471</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.5373816225070787E-2</c:v>
+                  <c:v>0.57463645378719574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,11 +1546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195775872"/>
-        <c:axId val="195781760"/>
+        <c:axId val="42957440"/>
+        <c:axId val="210157952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195775872"/>
+        <c:axId val="42957440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195781760"/>
+        <c:crossAx val="210157952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1567,7 +1567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195781760"/>
+        <c:axId val="210157952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1578,7 +1578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195775872"/>
+        <c:crossAx val="42957440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1652,64 +1652,64 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.8961195228015439</c:v>
+                  <c:v>8.0428881624490565</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98788041938380733</c:v>
+                  <c:v>3.551160445151909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1317129992419677</c:v>
+                  <c:v>9.9080533200928826</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.760052399062769</c:v>
+                  <c:v>6.6619746615934847</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21596082590877463</c:v>
+                  <c:v>10.702731700672425</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5856134234038741</c:v>
+                  <c:v>5.6125579909433672</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.220246945231283</c:v>
+                  <c:v>3.9603568332093908</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1592277674748268</c:v>
+                  <c:v>10.983511940474697</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6746389714245957</c:v>
+                  <c:v>3.2712203427882627</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.602064544747483</c:v>
+                  <c:v>0.26830982462555752</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.051923539994466</c:v>
+                  <c:v>4.1559091285832999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.9358415465043324</c:v>
+                  <c:v>0.8760307160774663</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4376518896997315</c:v>
+                  <c:v>4.5793906391396284</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4283912004335138</c:v>
+                  <c:v>5.108116764395624</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1001766244742806</c:v>
+                  <c:v>0.44571334901319437</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.490924736566114</c:v>
+                  <c:v>2.1995991602364935</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.203503289246209</c:v>
+                  <c:v>7.6129886923302195</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3316458932883473</c:v>
+                  <c:v>0.51078740817502633</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.4533104144143927</c:v>
+                  <c:v>1.5541618052110704</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3454376515844686</c:v>
+                  <c:v>5.6171575774249352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,11 +1726,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195810432"/>
-        <c:axId val="195811968"/>
+        <c:axId val="136536448"/>
+        <c:axId val="136537984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195810432"/>
+        <c:axId val="136536448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,7 +1739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195811968"/>
+        <c:crossAx val="136537984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1747,7 +1747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195811968"/>
+        <c:axId val="136537984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,7 +1758,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195810432"/>
+        <c:crossAx val="136536448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1831,64 +1831,64 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>9.6981974853618008E-2</c:v>
+                  <c:v>2.6352129346214559E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5093560624270264E-2</c:v>
+                  <c:v>2.6720410594126231E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1193584769655167E-2</c:v>
+                  <c:v>1.8844341497809579E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.956878116884509E-2</c:v>
+                  <c:v>2.8098842626379284E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8368707295655426E-2</c:v>
+                  <c:v>8.6279387393223231E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5745429002372979E-3</c:v>
+                  <c:v>2.8303663974873348E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.526009541048854E-2</c:v>
+                  <c:v>2.3384560339531089E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9199701022438541E-3</c:v>
+                  <c:v>5.6276152156288985E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8150368578715513E-2</c:v>
+                  <c:v>2.1255214687929437E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3274328701138088E-2</c:v>
+                  <c:v>3.0170469056883042E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.8298887621103491E-2</c:v>
+                  <c:v>8.008231672018512E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6799096514196937E-2</c:v>
+                  <c:v>1.7875959168191458E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8432442874359215E-2</c:v>
+                  <c:v>6.07831226178671E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5855203318243687E-2</c:v>
+                  <c:v>3.8489951694292701E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3895679209298296E-2</c:v>
+                  <c:v>8.4932834805300232E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.8714910527902E-2</c:v>
+                  <c:v>8.1867410131608837E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.0998190744834822E-3</c:v>
+                  <c:v>6.1671290746840378E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.6446193922587846E-2</c:v>
+                  <c:v>8.7377099946598979E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.1732619685962923E-2</c:v>
+                  <c:v>5.1672369340339863E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3142094621496957E-2</c:v>
+                  <c:v>8.8802598910835112E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,11 +1905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195693184"/>
-        <c:axId val="195699072"/>
+        <c:axId val="136550272"/>
+        <c:axId val="136551808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195693184"/>
+        <c:axId val="136550272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,7 +1918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195699072"/>
+        <c:crossAx val="136551808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1926,7 +1926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195699072"/>
+        <c:axId val="136551808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,7 +1937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195693184"/>
+        <c:crossAx val="136550272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2009,64 +2009,64 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7.9458493652685096</c:v>
+                  <c:v>12.181692079130812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.36203459578212</c:v>
+                  <c:v>4.7529453547952407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.439717195129763</c:v>
+                  <c:v>6.3762228888077921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.983702824043608</c:v>
+                  <c:v>17.849354148235534</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3194697362046455</c:v>
+                  <c:v>25.31396560491272</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5704148105611111</c:v>
+                  <c:v>0.45787761638647617</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.408811703563876</c:v>
+                  <c:v>22.824757558938312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.26781127905682</c:v>
+                  <c:v>14.033251890016196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.194055382066324</c:v>
+                  <c:v>47.468033993439356</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.880216372721836</c:v>
+                  <c:v>12.136370667479362</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.765003189678886</c:v>
+                  <c:v>15.120376248877704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.563781062430504</c:v>
+                  <c:v>1.1386355935504577</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.60156861944658</c:v>
+                  <c:v>11.676445725956558</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.72435711058516</c:v>
+                  <c:v>34.306294783976554</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.349943188383914</c:v>
+                  <c:v>48.346595758204394</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.025365507525237</c:v>
+                  <c:v>21.976124030976369</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.627658446509038</c:v>
+                  <c:v>27.679010028232305</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.144234747534536</c:v>
+                  <c:v>29.512031415442628</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.6768724577468985</c:v>
+                  <c:v>2.0220463744145101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.962201349940905</c:v>
+                  <c:v>27.959348291673809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2083,11 +2083,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195752320"/>
-        <c:axId val="195753856"/>
+        <c:axId val="210374016"/>
+        <c:axId val="210384000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195752320"/>
+        <c:axId val="210374016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,7 +2096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195753856"/>
+        <c:crossAx val="210384000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2104,7 +2104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195753856"/>
+        <c:axId val="210384000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,7 +2115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195752320"/>
+        <c:crossAx val="210374016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2188,64 +2188,64 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>8.9689122141144662</c:v>
+                  <c:v>17.449394139877128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.967727930036354</c:v>
+                  <c:v>12.892882183451608</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.015029425938959</c:v>
+                  <c:v>12.04875580652168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.996219475135071</c:v>
+                  <c:v>11.033028917094926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.31350998668152</c:v>
+                  <c:v>9.3707713632882328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5002304667555801</c:v>
+                  <c:v>14.674742700104593</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6749543567350447</c:v>
+                  <c:v>10.176353056134495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.302197942641882</c:v>
+                  <c:v>15.5046395080495</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.217517962859695</c:v>
+                  <c:v>10.434715410521942</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.407410738490402</c:v>
+                  <c:v>12.654480233615782</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.854369427696106</c:v>
+                  <c:v>7.0824822499856328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.819657159675643</c:v>
+                  <c:v>17.899030916205106</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.599321914801322</c:v>
+                  <c:v>13.200788757644833</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.1102280903464994</c:v>
+                  <c:v>11.32506417283712</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.757670924086881</c:v>
+                  <c:v>15.390990476270593</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.14129248804398</c:v>
+                  <c:v>17.690244800563796</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.873194065404352</c:v>
+                  <c:v>11.600668984109049</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.547040021585165</c:v>
+                  <c:v>13.757205618119396</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.660451969362541</c:v>
+                  <c:v>7.4801124653507101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.950401567546514</c:v>
+                  <c:v>10.834805802297701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2262,11 +2262,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196091264"/>
-        <c:axId val="196101248"/>
+        <c:axId val="210406016"/>
+        <c:axId val="210416000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196091264"/>
+        <c:axId val="210406016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,7 +2275,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196101248"/>
+        <c:crossAx val="210416000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2283,7 +2283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196101248"/>
+        <c:axId val="210416000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,7 +2294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196091264"/>
+        <c:crossAx val="210406016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2346,6 +2346,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2432,11 +2433,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173868544"/>
-        <c:axId val="173870464"/>
+        <c:axId val="136688768"/>
+        <c:axId val="136690688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173868544"/>
+        <c:axId val="136688768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2458,13 +2459,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173870464"/>
+        <c:crossAx val="136690688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2472,7 +2474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173870464"/>
+        <c:axId val="136690688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,19 +2502,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173868544"/>
+        <c:crossAx val="136688768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2644,11 +2648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173889792"/>
-        <c:axId val="173916544"/>
+        <c:axId val="136461312"/>
+        <c:axId val="42964096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173889792"/>
+        <c:axId val="136461312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2677,7 +2681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173916544"/>
+        <c:crossAx val="42964096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2685,7 +2689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173916544"/>
+        <c:axId val="42964096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2720,7 +2724,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173889792"/>
+        <c:crossAx val="136461312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3227,7 +3231,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3237,7 +3241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D42" sqref="D42:M42"/>
     </sheetView>
   </sheetViews>
@@ -3327,441 +3331,441 @@
     <row r="8" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <f ca="1">RAND()</f>
-        <v>8.8623669034359032E-2</v>
+        <v>0.89991000444989111</v>
       </c>
       <c r="C8" s="2">
         <f ca="1">RAND()*50</f>
-        <v>7.9458493652685096</v>
+        <v>12.181692079130812</v>
       </c>
       <c r="D8" s="2">
         <f ca="1">RAND()*12</f>
-        <v>3.8961195228015439</v>
+        <v>8.0428881624490565</v>
       </c>
       <c r="E8" s="2">
         <f ca="1">RAND()/10</f>
-        <v>9.6981974853618008E-2</v>
+        <v>2.6352129346214559E-2</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">7+RAND()*12</f>
-        <v>8.9689122141144662</v>
+        <v>17.449394139877128</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <f t="shared" ref="B9:B27" ca="1" si="0">RAND()</f>
-        <v>0.78143967932854164</v>
+        <v>0.57669061738316985</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:C27" ca="1" si="1">RAND()*50</f>
-        <v>35.36203459578212</v>
+        <v>4.7529453547952407</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D27" ca="1" si="2">RAND()*12</f>
-        <v>0.98788041938380733</v>
+        <v>3.551160445151909</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E27" ca="1" si="3">RAND()/10</f>
-        <v>7.5093560624270264E-2</v>
+        <v>2.6720410594126231E-2</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ref="F9:F27" ca="1" si="4">7+RAND()*12</f>
-        <v>18.967727930036354</v>
+        <v>12.892882183451608</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34775161478074768</v>
+        <v>0.46271855468910739</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18.439717195129763</v>
+        <v>6.3762228888077921</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1317129992419677</v>
+        <v>9.9080533200928826</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1193584769655167E-2</v>
+        <v>1.8844341497809579E-2</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.015029425938959</v>
+        <v>12.04875580652168</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77487145597344875</v>
+        <v>0.10181792420196167</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>30.983702824043608</v>
+        <v>17.849354148235534</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.760052399062769</v>
+        <v>6.6619746615934847</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.956878116884509E-2</v>
+        <v>2.8098842626379284E-2</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15.996219475135071</v>
+        <v>11.033028917094926</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24598703496600882</v>
+        <v>3.192952747817368E-2</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3194697362046455</v>
+        <v>25.31396560491272</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21596082590877463</v>
+        <v>10.702731700672425</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8368707295655426E-2</v>
+        <v>8.6279387393223231E-2</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10.31350998668152</v>
+        <v>9.3707713632882328</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2284470635168852E-3</v>
+        <v>0.96249630342295556</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5704148105611111</v>
+        <v>0.45787761638647617</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5856134234038741</v>
+        <v>5.6125579909433672</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5745429002372979E-3</v>
+        <v>2.8303663974873348E-2</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8.5002304667555801</v>
+        <v>14.674742700104593</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95814359356253254</v>
+        <v>0.81155678470553971</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11.408811703563876</v>
+        <v>22.824757558938312</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.220246945231283</v>
+        <v>3.9603568332093908</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.526009541048854E-2</v>
+        <v>2.3384560339531089E-2</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.6749543567350447</v>
+        <v>10.176353056134495</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94590955526251774</v>
+        <v>0.22649854283427973</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10.26781127905682</v>
+        <v>14.033251890016196</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1592277674748268</v>
+        <v>10.983511940474697</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9199701022438541E-3</v>
+        <v>5.6276152156288985E-2</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17.302197942641882</v>
+        <v>15.5046395080495</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52931826278459593</v>
+        <v>0.44461785729194414</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45.194055382066324</v>
+        <v>47.468033993439356</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6746389714245957</v>
+        <v>3.2712203427882627</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8150368578715513E-2</v>
+        <v>2.1255214687929437E-2</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.217517962859695</v>
+        <v>10.434715410521942</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91277532272182116</v>
+        <v>0.62054722614934943</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>26.880216372721836</v>
+        <v>12.136370667479362</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11.602064544747483</v>
+        <v>0.26830982462555752</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3274328701138088E-2</v>
+        <v>3.0170469056883042E-2</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18.407410738490402</v>
+        <v>12.654480233615782</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12491840786755803</v>
+        <v>0.93869512832849855</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>34.765003189678886</v>
+        <v>15.120376248877704</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.051923539994466</v>
+        <v>4.1559091285832999</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8298887621103491E-2</v>
+        <v>8.008231672018512E-2</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15.854369427696106</v>
+        <v>7.0824822499856328</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3656448774479566</v>
+        <v>0.87718423720868144</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>28.563781062430504</v>
+        <v>1.1386355935504577</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9358415465043324</v>
+        <v>0.8760307160774663</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6799096514196937E-2</v>
+        <v>1.7875959168191458E-2</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16.819657159675643</v>
+        <v>17.899030916205106</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95440526224867295</v>
+        <v>0.36839129576747731</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12.60156861944658</v>
+        <v>11.676445725956558</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4376518896997315</v>
+        <v>4.5793906391396284</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8432442874359215E-2</v>
+        <v>6.07831226178671E-2</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11.599321914801322</v>
+        <v>13.200788757644833</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67429728122366106</v>
+        <v>0.52941449785985795</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>39.72435711058516</v>
+        <v>34.306294783976554</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4283912004335138</v>
+        <v>5.108116764395624</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5855203318243687E-2</v>
+        <v>3.8489951694292701E-2</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1102280903464994</v>
+        <v>11.32506417283712</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1880497646432262</v>
+        <v>0.72140219524145111</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.349943188383914</v>
+        <v>48.346595758204394</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1001766244742806</v>
+        <v>0.44571334901319437</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3895679209298296E-2</v>
+        <v>8.4932834805300232E-4</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11.757670924086881</v>
+        <v>15.390990476270593</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27211049813789678</v>
+        <v>0.24385210770062915</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.025365507525237</v>
+        <v>21.976124030976369</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10.490924736566114</v>
+        <v>2.1995991602364935</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8714910527902E-2</v>
+        <v>8.1867410131608837E-2</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15.14129248804398</v>
+        <v>17.690244800563796</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62054982766613898</v>
+        <v>2.0840685997615238E-2</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.627658446509038</v>
+        <v>27.679010028232305</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10.203503289246209</v>
+        <v>7.6129886923302195</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0998190744834822E-3</v>
+        <v>6.1671290746840378E-2</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13.873194065404352</v>
+        <v>11.600668984109049</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76172660157955152</v>
+        <v>7.8220089479253185E-2</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>28.144234747534536</v>
+        <v>29.512031415442628</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3316458932883473</v>
+        <v>0.51078740817502633</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6446193922587846E-2</v>
+        <v>8.7377099946598979E-2</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11.547040021585165</v>
+        <v>13.757205618119396</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37665184460409706</v>
+        <v>0.4385724074414471</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6768724577468985</v>
+        <v>2.0220463744145101</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4533104144143927</v>
+        <v>1.5541618052110704</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1732619685962923E-2</v>
+        <v>5.1672369340339863E-2</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18.660451969362541</v>
+        <v>7.4801124653507101</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5373816225070787E-2</v>
+        <v>0.57463645378719574</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>13.962201349940905</v>
+        <v>27.959348291673809</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3454376515844686</v>
+        <v>5.6171575774249352</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3142094621496957E-2</v>
+        <v>8.8802598910835112E-2</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10.950401567546514</v>
+        <v>10.834805802297701</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3963,43 +3967,43 @@
       </c>
       <c r="D42" s="12">
         <f ca="1">ROUND(RAND()*999+1,0)</f>
-        <v>490</v>
+        <v>602</v>
       </c>
       <c r="E42" s="12">
         <f t="shared" ref="E42:M42" ca="1" si="5">ROUND(RAND()*999+1,0)</f>
-        <v>72</v>
+        <v>271</v>
       </c>
       <c r="F42" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>637</v>
+        <v>768</v>
       </c>
       <c r="G42" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>671</v>
+        <v>908</v>
       </c>
       <c r="H42" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I42" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="J42" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>834</v>
+        <v>123</v>
       </c>
       <c r="K42" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>372</v>
+        <v>541</v>
       </c>
       <c r="L42" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>453</v>
+        <v>594</v>
       </c>
       <c r="M42" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>493</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4026,8 +4030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView tabSelected="1" topLeftCell="H76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R65" sqref="R65:R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4427,7 +4431,9 @@
       <c r="K18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="122"/>
+      <c r="L18" s="122">
+        <v>3.25</v>
+      </c>
       <c r="M18" s="13"/>
       <c r="N18" s="123"/>
       <c r="O18" s="123"/>
@@ -4455,14 +4461,18 @@
       <c r="K19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="124"/>
+      <c r="L19" s="124">
+        <v>2.577</v>
+      </c>
       <c r="M19" s="95"/>
       <c r="N19" s="95"/>
       <c r="O19" s="95"/>
       <c r="P19" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="Q19" s="125"/>
+      <c r="Q19" s="125">
+        <v>0.2</v>
+      </c>
       <c r="R19" s="29">
         <v>0</v>
       </c>
@@ -4476,7 +4486,9 @@
       <c r="K20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="126"/>
+      <c r="L20" s="126">
+        <v>1.61</v>
+      </c>
       <c r="M20" s="95"/>
       <c r="N20" s="95"/>
       <c r="O20" s="95"/>
@@ -4496,14 +4508,18 @@
       <c r="K21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="128"/>
+      <c r="L21" s="128">
+        <v>0.51</v>
+      </c>
       <c r="M21" s="95"/>
       <c r="N21" s="95"/>
       <c r="O21" s="95"/>
       <c r="P21" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="Q21" s="127"/>
+      <c r="Q21" s="127">
+        <v>2</v>
+      </c>
       <c r="R21" s="30">
         <v>0.25</v>
       </c>
@@ -4521,7 +4537,9 @@
       <c r="P22" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="Q22" s="125"/>
+      <c r="Q22" s="125">
+        <v>3.3</v>
+      </c>
       <c r="R22" s="30">
         <v>0.5</v>
       </c>
@@ -4539,7 +4557,9 @@
       <c r="P23" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="Q23" s="127"/>
+      <c r="Q23" s="127">
+        <v>4.5</v>
+      </c>
       <c r="R23" s="30">
         <v>0.75</v>
       </c>
@@ -4582,7 +4602,9 @@
       <c r="P25" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Q25" s="125"/>
+      <c r="Q25" s="125">
+        <v>7.5</v>
+      </c>
       <c r="R25" s="31">
         <v>1</v>
       </c>
@@ -8493,7 +8515,9 @@
       <c r="D111" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="E111" s="81"/>
+      <c r="E111" s="81">
+        <v>3.25</v>
+      </c>
       <c r="F111" s="81"/>
       <c r="G111" s="82"/>
       <c r="H111" s="81"/>

--- a/Задание 4/4_12_RES4_It_Trashko.xlsx
+++ b/Задание 4/4_12_RES4_It_Trashko.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="135">
   <si>
     <t>СЛЧИС()</t>
   </si>
@@ -442,6 +442,9 @@
   <si>
     <t>Потому что ошибка среднего - это теоретическое стандартное отклонение, полученное для всех средних выборок размера n, извлекаемых из генеральной совокупности.</t>
   </si>
+  <si>
+    <t>Характеристики точнее оцениваются по выборке объема 140. Мы можем наблюдать слишком большой разброс характеристик в выборках по 10</t>
+  </si>
 </sst>
 </file>
 
@@ -585,7 +588,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,12 +634,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +936,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1272,8 +1269,6 @@
     <xf numFmtId="1" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1320,33 +1315,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1400,6 +1368,16 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1450,7 +1428,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1472,64 +1449,64 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.89991000444989111</c:v>
+                  <c:v>0.72883998264922867</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57669061738316985</c:v>
+                  <c:v>0.3261523576190285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46271855468910739</c:v>
+                  <c:v>6.0155360259233515E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10181792420196167</c:v>
+                  <c:v>2.7585395013777103E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.192952747817368E-2</c:v>
+                  <c:v>0.58130085242480745</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96249630342295556</c:v>
+                  <c:v>0.43493881226076625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81155678470553971</c:v>
+                  <c:v>0.33948525102560023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22649854283427973</c:v>
+                  <c:v>0.38305735971696264</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44461785729194414</c:v>
+                  <c:v>0.3927376548421837</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62054722614934943</c:v>
+                  <c:v>0.49655151411210963</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93869512832849855</c:v>
+                  <c:v>0.90184829198266114</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87718423720868144</c:v>
+                  <c:v>0.86357253738443296</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.36839129576747731</c:v>
+                  <c:v>0.74681186108939579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.52941449785985795</c:v>
+                  <c:v>0.50542561273139663</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.72140219524145111</c:v>
+                  <c:v>0.8231650187030789</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.24385210770062915</c:v>
+                  <c:v>0.77434611134335607</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0840685997615238E-2</c:v>
+                  <c:v>5.57336362285622E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.8220089479253185E-2</c:v>
+                  <c:v>0.53046747874534239</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.4385724074414471</c:v>
+                  <c:v>0.40392567846251282</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.57463645378719574</c:v>
+                  <c:v>0.9287683733914035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,11 +1523,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42957440"/>
-        <c:axId val="210157952"/>
+        <c:axId val="196046848"/>
+        <c:axId val="196048384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42957440"/>
+        <c:axId val="196046848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210157952"/>
+        <c:crossAx val="196048384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1567,7 +1544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210157952"/>
+        <c:axId val="196048384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1578,14 +1555,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42957440"/>
+        <c:crossAx val="196046848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1630,7 +1606,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1652,64 +1627,64 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>8.0428881624490565</c:v>
+                  <c:v>4.5390593301789322</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.551160445151909</c:v>
+                  <c:v>7.0031678115203366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9080533200928826</c:v>
+                  <c:v>4.8167096250710806E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6619746615934847</c:v>
+                  <c:v>4.6432515561995418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.702731700672425</c:v>
+                  <c:v>1.1283430365288716</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6125579909433672</c:v>
+                  <c:v>6.9747941651797936</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9603568332093908</c:v>
+                  <c:v>6.9660626245233548</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.983511940474697</c:v>
+                  <c:v>11.96904986404401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2712203427882627</c:v>
+                  <c:v>9.3141868960908347</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26830982462555752</c:v>
+                  <c:v>3.9937864791797151</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1559091285832999</c:v>
+                  <c:v>11.048709823747094</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8760307160774663</c:v>
+                  <c:v>2.9236843050345365</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5793906391396284</c:v>
+                  <c:v>9.9171382051657702</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.108116764395624</c:v>
+                  <c:v>2.6135708476273933</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.44571334901319437</c:v>
+                  <c:v>4.6395964861510288</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1995991602364935</c:v>
+                  <c:v>10.227406635054018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6129886923302195</c:v>
+                  <c:v>10.675920559015726</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.51078740817502633</c:v>
+                  <c:v>10.444369470832022</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5541618052110704</c:v>
+                  <c:v>4.9314377594968004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6171575774249352</c:v>
+                  <c:v>8.0063254340791037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,11 +1701,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136536448"/>
-        <c:axId val="136537984"/>
+        <c:axId val="196072960"/>
+        <c:axId val="196074496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136536448"/>
+        <c:axId val="196072960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,7 +1714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136537984"/>
+        <c:crossAx val="196074496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1747,7 +1722,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136537984"/>
+        <c:axId val="196074496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,14 +1733,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136536448"/>
+        <c:crossAx val="196072960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1831,64 +1805,64 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.6352129346214559E-2</c:v>
+                  <c:v>2.4927228790298739E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6720410594126231E-2</c:v>
+                  <c:v>2.9079460139316126E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8844341497809579E-2</c:v>
+                  <c:v>5.3571139169827676E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8098842626379284E-2</c:v>
+                  <c:v>5.2732675539077213E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6279387393223231E-2</c:v>
+                  <c:v>3.3639719265702306E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8303663974873348E-2</c:v>
+                  <c:v>6.9777157579069507E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3384560339531089E-2</c:v>
+                  <c:v>6.5272624802727969E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6276152156288985E-2</c:v>
+                  <c:v>9.6936806530105932E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1255214687929437E-2</c:v>
+                  <c:v>9.4769377834936414E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0170469056883042E-2</c:v>
+                  <c:v>3.5783735210165313E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.008231672018512E-2</c:v>
+                  <c:v>7.7331889136831922E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7875959168191458E-2</c:v>
+                  <c:v>7.0131724457529132E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.07831226178671E-2</c:v>
+                  <c:v>4.4448357475842928E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8489951694292701E-2</c:v>
+                  <c:v>9.723316684856026E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.4932834805300232E-4</c:v>
+                  <c:v>5.951957100602747E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.1867410131608837E-2</c:v>
+                  <c:v>8.7648288036870609E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1671290746840378E-2</c:v>
+                  <c:v>9.0127240985480597E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.7377099946598979E-2</c:v>
+                  <c:v>5.6911240268159913E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1672369340339863E-2</c:v>
+                  <c:v>5.9347299590960266E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.8802598910835112E-2</c:v>
+                  <c:v>1.040444076001379E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,11 +1879,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136550272"/>
-        <c:axId val="136551808"/>
+        <c:axId val="196480000"/>
+        <c:axId val="196498176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136550272"/>
+        <c:axId val="196480000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,7 +1892,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136551808"/>
+        <c:crossAx val="196498176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1926,7 +1900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136551808"/>
+        <c:axId val="196498176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,7 +1911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136550272"/>
+        <c:crossAx val="196480000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2009,64 +1983,64 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>12.181692079130812</c:v>
+                  <c:v>14.820120855106712</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7529453547952407</c:v>
+                  <c:v>35.215067262989457</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3762228888077921</c:v>
+                  <c:v>7.9856217448882214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.849354148235534</c:v>
+                  <c:v>41.903616791826948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.31396560491272</c:v>
+                  <c:v>35.503259354146792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45787761638647617</c:v>
+                  <c:v>3.9377386824019647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.824757558938312</c:v>
+                  <c:v>40.293351990616657</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.033251890016196</c:v>
+                  <c:v>28.597189533391138</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.468033993439356</c:v>
+                  <c:v>41.809363952002506</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.136370667479362</c:v>
+                  <c:v>20.837113565506272</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.120376248877704</c:v>
+                  <c:v>19.294465292934714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1386355935504577</c:v>
+                  <c:v>9.1466237003498314</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.676445725956558</c:v>
+                  <c:v>27.172022342794317</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.306294783976554</c:v>
+                  <c:v>25.10983703907716</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.346595758204394</c:v>
+                  <c:v>7.6641947771332211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.976124030976369</c:v>
+                  <c:v>2.7676138154648644</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.679010028232305</c:v>
+                  <c:v>5.1312913221268408</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.512031415442628</c:v>
+                  <c:v>29.314745241404346</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0220463744145101</c:v>
+                  <c:v>44.652588426418191</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27.959348291673809</c:v>
+                  <c:v>24.352440465675922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2083,11 +2057,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="210374016"/>
-        <c:axId val="210384000"/>
+        <c:axId val="196539136"/>
+        <c:axId val="196540672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210374016"/>
+        <c:axId val="196539136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,7 +2070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210384000"/>
+        <c:crossAx val="196540672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2104,7 +2078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210384000"/>
+        <c:axId val="196540672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,7 +2089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210374016"/>
+        <c:crossAx val="196539136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2166,7 +2140,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2188,64 +2161,64 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>17.449394139877128</c:v>
+                  <c:v>7.2297403867941608</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.892882183451608</c:v>
+                  <c:v>7.0697823512584606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.04875580652168</c:v>
+                  <c:v>9.421867065735265</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.033028917094926</c:v>
+                  <c:v>10.62132216000669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3707713632882328</c:v>
+                  <c:v>13.436691309720038</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.674742700104593</c:v>
+                  <c:v>8.6624565607109716</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.176353056134495</c:v>
+                  <c:v>15.063048312807087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.5046395080495</c:v>
+                  <c:v>18.262206463700245</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.434715410521942</c:v>
+                  <c:v>17.114176067774821</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.654480233615782</c:v>
+                  <c:v>7.5063110733310143</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0824822499856328</c:v>
+                  <c:v>15.345991530069492</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.899030916205106</c:v>
+                  <c:v>16.076571727916267</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.200788757644833</c:v>
+                  <c:v>18.008246455196691</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.32506417283712</c:v>
+                  <c:v>13.99628843966976</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.390990476270593</c:v>
+                  <c:v>7.2703007236904931</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.690244800563796</c:v>
+                  <c:v>7.783257809340558</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.600668984109049</c:v>
+                  <c:v>15.535894770652014</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.757205618119396</c:v>
+                  <c:v>10.001037096616779</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.4801124653507101</c:v>
+                  <c:v>16.209443185572582</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.834805802297701</c:v>
+                  <c:v>9.9554268792161125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2262,11 +2235,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="210406016"/>
-        <c:axId val="210416000"/>
+        <c:axId val="196628864"/>
+        <c:axId val="196630400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210406016"/>
+        <c:axId val="196628864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,7 +2248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210416000"/>
+        <c:crossAx val="196630400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2283,7 +2256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210416000"/>
+        <c:axId val="196630400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,14 +2267,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210406016"/>
+        <c:crossAx val="196628864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2433,11 +2405,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136688768"/>
-        <c:axId val="136690688"/>
+        <c:axId val="175772032"/>
+        <c:axId val="175773952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136688768"/>
+        <c:axId val="175772032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,7 +2438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136690688"/>
+        <c:crossAx val="175773952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2474,7 +2446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136690688"/>
+        <c:axId val="175773952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,7 +2481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136688768"/>
+        <c:crossAx val="175772032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2648,11 +2620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136461312"/>
-        <c:axId val="42964096"/>
+        <c:axId val="175807104"/>
+        <c:axId val="175825664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136461312"/>
+        <c:axId val="175807104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,7 +2653,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42964096"/>
+        <c:crossAx val="175825664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2689,7 +2661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42964096"/>
+        <c:axId val="175825664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2724,7 +2696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136461312"/>
+        <c:crossAx val="175807104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3231,7 +3203,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3293,23 +3265,23 @@
       <c r="A5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="144"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="142"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -3331,452 +3303,452 @@
     <row r="8" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <f ca="1">RAND()</f>
-        <v>0.89991000444989111</v>
+        <v>0.72883998264922867</v>
       </c>
       <c r="C8" s="2">
         <f ca="1">RAND()*50</f>
-        <v>12.181692079130812</v>
+        <v>14.820120855106712</v>
       </c>
       <c r="D8" s="2">
         <f ca="1">RAND()*12</f>
-        <v>8.0428881624490565</v>
+        <v>4.5390593301789322</v>
       </c>
       <c r="E8" s="2">
         <f ca="1">RAND()/10</f>
-        <v>2.6352129346214559E-2</v>
+        <v>2.4927228790298739E-2</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">7+RAND()*12</f>
-        <v>17.449394139877128</v>
+        <v>7.2297403867941608</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <f t="shared" ref="B9:B27" ca="1" si="0">RAND()</f>
-        <v>0.57669061738316985</v>
+        <v>0.3261523576190285</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:C27" ca="1" si="1">RAND()*50</f>
-        <v>4.7529453547952407</v>
+        <v>35.215067262989457</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D27" ca="1" si="2">RAND()*12</f>
-        <v>3.551160445151909</v>
+        <v>7.0031678115203366</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E27" ca="1" si="3">RAND()/10</f>
-        <v>2.6720410594126231E-2</v>
+        <v>2.9079460139316126E-2</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ref="F9:F27" ca="1" si="4">7+RAND()*12</f>
-        <v>12.892882183451608</v>
+        <v>7.0697823512584606</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46271855468910739</v>
+        <v>6.0155360259233515E-2</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3762228888077921</v>
+        <v>7.9856217448882214</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9080533200928826</v>
+        <v>4.8167096250710806E-2</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8844341497809579E-2</v>
+        <v>5.3571139169827676E-2</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12.04875580652168</v>
+        <v>9.421867065735265</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10181792420196167</v>
+        <v>2.7585395013777103E-2</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>17.849354148235534</v>
+        <v>41.903616791826948</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.6619746615934847</v>
+        <v>4.6432515561995418</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8098842626379284E-2</v>
+        <v>5.2732675539077213E-2</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11.033028917094926</v>
+        <v>10.62132216000669</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.192952747817368E-2</v>
+        <v>0.58130085242480745</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>25.31396560491272</v>
+        <v>35.503259354146792</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10.702731700672425</v>
+        <v>1.1283430365288716</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.6279387393223231E-2</v>
+        <v>3.3639719265702306E-2</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.3707713632882328</v>
+        <v>13.436691309720038</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96249630342295556</v>
+        <v>0.43493881226076625</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45787761638647617</v>
+        <v>3.9377386824019647</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6125579909433672</v>
+        <v>6.9747941651797936</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8303663974873348E-2</v>
+        <v>6.9777157579069507E-2</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14.674742700104593</v>
+        <v>8.6624565607109716</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81155678470553971</v>
+        <v>0.33948525102560023</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>22.824757558938312</v>
+        <v>40.293351990616657</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9603568332093908</v>
+        <v>6.9660626245233548</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3384560339531089E-2</v>
+        <v>6.5272624802727969E-2</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10.176353056134495</v>
+        <v>15.063048312807087</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22649854283427973</v>
+        <v>0.38305735971696264</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>14.033251890016196</v>
+        <v>28.597189533391138</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10.983511940474697</v>
+        <v>11.96904986404401</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6276152156288985E-2</v>
+        <v>9.6936806530105932E-2</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15.5046395080495</v>
+        <v>18.262206463700245</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44461785729194414</v>
+        <v>0.3927376548421837</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>47.468033993439356</v>
+        <v>41.809363952002506</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.2712203427882627</v>
+        <v>9.3141868960908347</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1255214687929437E-2</v>
+        <v>9.4769377834936414E-2</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10.434715410521942</v>
+        <v>17.114176067774821</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62054722614934943</v>
+        <v>0.49655151411210963</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12.136370667479362</v>
+        <v>20.837113565506272</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26830982462555752</v>
+        <v>3.9937864791797151</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0170469056883042E-2</v>
+        <v>3.5783735210165313E-2</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12.654480233615782</v>
+        <v>7.5063110733310143</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93869512832849855</v>
+        <v>0.90184829198266114</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15.120376248877704</v>
+        <v>19.294465292934714</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1559091285832999</v>
+        <v>11.048709823747094</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.008231672018512E-2</v>
+        <v>7.7331889136831922E-2</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.0824822499856328</v>
+        <v>15.345991530069492</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87718423720868144</v>
+        <v>0.86357253738443296</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1386355935504577</v>
+        <v>9.1466237003498314</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8760307160774663</v>
+        <v>2.9236843050345365</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7875959168191458E-2</v>
+        <v>7.0131724457529132E-2</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17.899030916205106</v>
+        <v>16.076571727916267</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36839129576747731</v>
+        <v>0.74681186108939579</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11.676445725956558</v>
+        <v>27.172022342794317</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.5793906391396284</v>
+        <v>9.9171382051657702</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.07831226178671E-2</v>
+        <v>4.4448357475842928E-2</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13.200788757644833</v>
+        <v>18.008246455196691</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52941449785985795</v>
+        <v>0.50542561273139663</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>34.306294783976554</v>
+        <v>25.10983703907716</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.108116764395624</v>
+        <v>2.6135708476273933</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8489951694292701E-2</v>
+        <v>9.723316684856026E-2</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11.32506417283712</v>
+        <v>13.99628843966976</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72140219524145111</v>
+        <v>0.8231650187030789</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>48.346595758204394</v>
+        <v>7.6641947771332211</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44571334901319437</v>
+        <v>4.6395964861510288</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4932834805300232E-4</v>
+        <v>5.951957100602747E-2</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15.390990476270593</v>
+        <v>7.2703007236904931</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24385210770062915</v>
+        <v>0.77434611134335607</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>21.976124030976369</v>
+        <v>2.7676138154648644</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1995991602364935</v>
+        <v>10.227406635054018</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1867410131608837E-2</v>
+        <v>8.7648288036870609E-2</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17.690244800563796</v>
+        <v>7.783257809340558</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0840685997615238E-2</v>
+        <v>5.57336362285622E-2</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>27.679010028232305</v>
+        <v>5.1312913221268408</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6129886923302195</v>
+        <v>10.675920559015726</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1671290746840378E-2</v>
+        <v>9.0127240985480597E-2</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11.600668984109049</v>
+        <v>15.535894770652014</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8220089479253185E-2</v>
+        <v>0.53046747874534239</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.512031415442628</v>
+        <v>29.314745241404346</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51078740817502633</v>
+        <v>10.444369470832022</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.7377099946598979E-2</v>
+        <v>5.6911240268159913E-2</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13.757205618119396</v>
+        <v>10.001037096616779</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4385724074414471</v>
+        <v>0.40392567846251282</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0220463744145101</v>
+        <v>44.652588426418191</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5541618052110704</v>
+        <v>4.9314377594968004</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1672369340339863E-2</v>
+        <v>5.9347299590960266E-2</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.4801124653507101</v>
+        <v>16.209443185572582</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57463645378719574</v>
+        <v>0.9287683733914035</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>27.959348291673809</v>
+        <v>24.352440465675922</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6171575774249352</v>
+        <v>8.0063254340791037</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8802598910835112E-2</v>
+        <v>1.040444076001379E-3</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10.834805802297701</v>
+        <v>9.9554268792161125</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="147"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
@@ -3827,14 +3799,14 @@
       <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="149" t="s">
+      <c r="A32" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="149"/>
-      <c r="C32" s="149" t="s">
+      <c r="B32" s="147"/>
+      <c r="C32" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="149"/>
+      <c r="D32" s="147"/>
       <c r="E32" s="24" t="s">
         <v>42</v>
       </c>
@@ -3843,14 +3815,14 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148" t="s">
+      <c r="B33" s="146"/>
+      <c r="C33" s="146" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="148"/>
+      <c r="D33" s="146"/>
       <c r="E33" s="24">
         <v>0</v>
       </c>
@@ -3859,14 +3831,14 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="151"/>
-      <c r="C34" s="150" t="s">
+      <c r="B34" s="149"/>
+      <c r="C34" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="151"/>
+      <c r="D34" s="149"/>
       <c r="E34" s="24">
         <v>0</v>
       </c>
@@ -3875,14 +3847,14 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="151"/>
-      <c r="C35" s="150" t="s">
+      <c r="B35" s="149"/>
+      <c r="C35" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="151"/>
+      <c r="D35" s="149"/>
       <c r="E35" s="24">
         <v>0</v>
       </c>
@@ -3920,15 +3892,15 @@
       <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C39" s="140" t="s">
+      <c r="C39" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="141"/>
-    </row>
-    <row r="41" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D39" s="139"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="139"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
       <c r="D41" s="3">
         <v>1</v>
@@ -3967,43 +3939,43 @@
       </c>
       <c r="D42" s="12">
         <f ca="1">ROUND(RAND()*999+1,0)</f>
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="E42" s="12">
         <f t="shared" ref="E42:M42" ca="1" si="5">ROUND(RAND()*999+1,0)</f>
-        <v>271</v>
+        <v>606</v>
       </c>
       <c r="F42" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>768</v>
+        <v>246</v>
       </c>
       <c r="G42" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>908</v>
+        <v>236</v>
       </c>
       <c r="H42" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>769</v>
       </c>
       <c r="I42" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>712</v>
+        <v>801</v>
       </c>
       <c r="J42" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>123</v>
+        <v>353</v>
       </c>
       <c r="K42" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="L42" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>594</v>
+        <v>992</v>
       </c>
       <c r="M42" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>382</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -4030,8 +4002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R65" sqref="R65:R71"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S123" sqref="S123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4039,7 +4011,9 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="3.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
@@ -4124,14 +4098,14 @@
       <c r="A7" s="27">
         <v>3.4</v>
       </c>
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="166"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="155"/>
       <c r="K7" s="21" t="s">
         <v>54</v>
       </c>
@@ -4143,12 +4117,12 @@
       <c r="A8" s="27">
         <v>3.8</v>
       </c>
-      <c r="C8" s="167"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="169"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="158"/>
       <c r="P8" s="33" t="s">
         <v>55</v>
       </c>
@@ -4166,12 +4140,12 @@
       <c r="A9" s="27">
         <v>4.7</v>
       </c>
-      <c r="C9" s="167"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="169"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="158"/>
       <c r="K9" s="8" t="s">
         <v>25</v>
       </c>
@@ -4199,12 +4173,12 @@
       <c r="A10" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C10" s="167"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="169"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="158"/>
       <c r="K10" s="8" t="s">
         <v>29</v>
       </c>
@@ -4232,12 +4206,12 @@
       <c r="A11" s="27">
         <v>0.9</v>
       </c>
-      <c r="C11" s="167"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="169"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="158"/>
       <c r="K11" s="8" t="s">
         <v>27</v>
       </c>
@@ -4266,12 +4240,12 @@
         <v>3.4</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="169"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="158"/>
       <c r="K12" s="8" t="s">
         <v>28</v>
       </c>
@@ -4295,12 +4269,12 @@
         <v>2.6</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="169"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="158"/>
       <c r="P13" s="35" t="s">
         <v>62</v>
       </c>
@@ -4324,12 +4298,12 @@
       <c r="A14" s="27">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C14" s="167"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="169"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="158"/>
       <c r="P14" s="35" t="s">
         <v>63</v>
       </c>
@@ -4346,12 +4320,12 @@
       <c r="A15" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="169"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="158"/>
       <c r="P15" s="35" t="s">
         <v>59</v>
       </c>
@@ -4362,18 +4336,18 @@
       <c r="R15" s="30">
         <v>1</v>
       </c>
-      <c r="T15" s="138"/>
+      <c r="T15" s="136"/>
     </row>
     <row r="16" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27">
         <v>3.3</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="172"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="161"/>
       <c r="J16" s="21" t="s">
         <v>111</v>
       </c>
@@ -5244,7 +5218,7 @@
         <f>STDEV(D40:M40)</f>
         <v>0.8382521498133273</v>
       </c>
-      <c r="Q40" s="139">
+      <c r="Q40" s="137">
         <f>P40/N40</f>
         <v>0.21829483068055394</v>
       </c>
@@ -5333,7 +5307,7 @@
         <f t="shared" ref="P41:P46" si="4">STDEV(D41:M41)</f>
         <v>1.2392201849012405</v>
       </c>
-      <c r="Q41" s="139">
+      <c r="Q41" s="137">
         <f t="shared" ref="Q41:Q46" si="5">P41/N41</f>
         <v>0.40365478335545291</v>
       </c>
@@ -5428,7 +5402,7 @@
         <f t="shared" si="4"/>
         <v>1.4871299726505263</v>
       </c>
-      <c r="Q42" s="139">
+      <c r="Q42" s="137">
         <f t="shared" si="5"/>
         <v>0.41773313838497927</v>
       </c>
@@ -5516,7 +5490,7 @@
         <f t="shared" si="4"/>
         <v>1.5114746294779655</v>
       </c>
-      <c r="Q43" s="139">
+      <c r="Q43" s="137">
         <f t="shared" si="5"/>
         <v>0.50891401665924763</v>
       </c>
@@ -5605,7 +5579,7 @@
         <f t="shared" si="4"/>
         <v>1.7907168024751043</v>
       </c>
-      <c r="Q44" s="139">
+      <c r="Q44" s="137">
         <f t="shared" si="5"/>
         <v>0.59690560082503474</v>
       </c>
@@ -5693,7 +5667,7 @@
         <f t="shared" si="4"/>
         <v>1.7164562977897873</v>
       </c>
-      <c r="Q45" s="139">
+      <c r="Q45" s="137">
         <f t="shared" si="5"/>
         <v>0.53306096204651776</v>
       </c>
@@ -5816,7 +5790,7 @@
         <f t="shared" si="4"/>
         <v>1.4402546071210238</v>
       </c>
-      <c r="Q46" s="139">
+      <c r="Q46" s="137">
         <f t="shared" si="5"/>
         <v>0.48169050405385416</v>
       </c>
@@ -6595,7 +6569,7 @@
         <f>STDEV(D65:M65)</f>
         <v>1.3426756040748551</v>
       </c>
-      <c r="Q65" s="139">
+      <c r="Q65" s="137">
         <f>P65/N65</f>
         <v>0.36785632988352196</v>
       </c>
@@ -6683,7 +6657,7 @@
         <f t="shared" ref="P66:P71" si="16">STDEV(D66:M66)</f>
         <v>1.6998039102594547</v>
       </c>
-      <c r="Q66" s="139">
+      <c r="Q66" s="137">
         <f t="shared" ref="Q66:Q71" si="17">P66/N66</f>
         <v>0.44265726829673302</v>
       </c>
@@ -6771,7 +6745,7 @@
         <f t="shared" si="16"/>
         <v>1.5468965346424732</v>
       </c>
-      <c r="Q67" s="139">
+      <c r="Q67" s="137">
         <f t="shared" si="17"/>
         <v>0.42731948470786557</v>
       </c>
@@ -6859,7 +6833,7 @@
         <f t="shared" si="16"/>
         <v>2.1209012759254557</v>
       </c>
-      <c r="Q68" s="139">
+      <c r="Q68" s="137">
         <f t="shared" si="17"/>
         <v>0.6312206178349572</v>
       </c>
@@ -6947,7 +6921,7 @@
         <f t="shared" si="16"/>
         <v>1.3752171545694976</v>
       </c>
-      <c r="Q69" s="139">
+      <c r="Q69" s="137">
         <f t="shared" si="17"/>
         <v>0.38957993047294548</v>
       </c>
@@ -7035,7 +7009,7 @@
         <f t="shared" si="16"/>
         <v>1.9351715399129064</v>
       </c>
-      <c r="Q70" s="139">
+      <c r="Q70" s="137">
         <f t="shared" si="17"/>
         <v>0.63656958549766651</v>
       </c>
@@ -7123,7 +7097,7 @@
         <f t="shared" si="16"/>
         <v>1.5528110710006622</v>
       </c>
-      <c r="Q71" s="139">
+      <c r="Q71" s="137">
         <f t="shared" si="17"/>
         <v>0.48984576372260635</v>
       </c>
@@ -7430,7 +7404,7 @@
         <f>STDEV(D79:M92)</f>
         <v>1.5284563547468046</v>
       </c>
-      <c r="Q79" s="139">
+      <c r="Q79" s="137">
         <f>P79/N79</f>
         <v>0.45664509104684753</v>
       </c>
@@ -8172,23 +8146,23 @@
       <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99" s="173" t="s">
+      <c r="C99" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="173"/>
-      <c r="E99" s="173"/>
-      <c r="F99" s="173"/>
-      <c r="G99" s="173"/>
-      <c r="H99" s="173"/>
-      <c r="I99" s="173"/>
-      <c r="J99" s="173"/>
-      <c r="K99" s="173"/>
-      <c r="L99" s="173"/>
-      <c r="M99" s="173"/>
-      <c r="N99" s="173"/>
-      <c r="O99" s="173"/>
-      <c r="P99" s="173"/>
-      <c r="Q99" s="173"/>
+      <c r="D99" s="162"/>
+      <c r="E99" s="162"/>
+      <c r="F99" s="162"/>
+      <c r="G99" s="162"/>
+      <c r="H99" s="162"/>
+      <c r="I99" s="162"/>
+      <c r="J99" s="162"/>
+      <c r="K99" s="162"/>
+      <c r="L99" s="162"/>
+      <c r="M99" s="162"/>
+      <c r="N99" s="162"/>
+      <c r="O99" s="162"/>
+      <c r="P99" s="162"/>
+      <c r="Q99" s="162"/>
       <c r="R99" s="16"/>
       <c r="S99" s="16"/>
       <c r="T99" s="16" t="s">
@@ -8202,23 +8176,23 @@
       <c r="A100" s="27">
         <v>5.8</v>
       </c>
-      <c r="C100" s="174" t="s">
+      <c r="C100" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="D100" s="175"/>
-      <c r="E100" s="175"/>
-      <c r="F100" s="175"/>
-      <c r="G100" s="175"/>
-      <c r="H100" s="175"/>
-      <c r="I100" s="175"/>
-      <c r="J100" s="175"/>
-      <c r="K100" s="175"/>
-      <c r="L100" s="175"/>
-      <c r="M100" s="175"/>
-      <c r="N100" s="175"/>
-      <c r="O100" s="175"/>
-      <c r="P100" s="175"/>
-      <c r="Q100" s="176"/>
+      <c r="D100" s="164"/>
+      <c r="E100" s="164"/>
+      <c r="F100" s="164"/>
+      <c r="G100" s="164"/>
+      <c r="H100" s="164"/>
+      <c r="I100" s="164"/>
+      <c r="J100" s="164"/>
+      <c r="K100" s="164"/>
+      <c r="L100" s="164"/>
+      <c r="M100" s="164"/>
+      <c r="N100" s="164"/>
+      <c r="O100" s="164"/>
+      <c r="P100" s="164"/>
+      <c r="Q100" s="165"/>
       <c r="R100" s="16"/>
       <c r="S100" s="16"/>
       <c r="T100" s="16" t="s">
@@ -8232,29 +8206,29 @@
       <c r="A101" s="27">
         <v>1.9</v>
       </c>
-      <c r="C101" s="177"/>
-      <c r="D101" s="178"/>
-      <c r="E101" s="178"/>
-      <c r="F101" s="178"/>
-      <c r="G101" s="178"/>
-      <c r="H101" s="178"/>
-      <c r="I101" s="178"/>
-      <c r="J101" s="178"/>
-      <c r="K101" s="178"/>
-      <c r="L101" s="178"/>
-      <c r="M101" s="178"/>
-      <c r="N101" s="178"/>
-      <c r="O101" s="178"/>
-      <c r="P101" s="178"/>
-      <c r="Q101" s="179"/>
+      <c r="C101" s="166"/>
+      <c r="D101" s="167"/>
+      <c r="E101" s="167"/>
+      <c r="F101" s="167"/>
+      <c r="G101" s="167"/>
+      <c r="H101" s="167"/>
+      <c r="I101" s="167"/>
+      <c r="J101" s="167"/>
+      <c r="K101" s="167"/>
+      <c r="L101" s="167"/>
+      <c r="M101" s="167"/>
+      <c r="N101" s="167"/>
+      <c r="O101" s="167"/>
+      <c r="P101" s="167"/>
+      <c r="Q101" s="168"/>
       <c r="R101" s="16"/>
       <c r="S101" s="16"/>
-      <c r="T101" s="153" t="s">
+      <c r="T101" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="U101" s="153"/>
-      <c r="V101" s="153"/>
-      <c r="W101" s="153"/>
+      <c r="U101" s="151"/>
+      <c r="V101" s="151"/>
+      <c r="W101" s="151"/>
     </row>
     <row r="102" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="27">
@@ -8269,10 +8243,10 @@
       <c r="Q102" s="16"/>
       <c r="R102" s="16"/>
       <c r="S102" s="16"/>
-      <c r="T102" s="153"/>
-      <c r="U102" s="153"/>
-      <c r="V102" s="153"/>
-      <c r="W102" s="153"/>
+      <c r="T102" s="151"/>
+      <c r="U102" s="151"/>
+      <c r="V102" s="151"/>
+      <c r="W102" s="151"/>
     </row>
     <row r="103" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="27">
@@ -8281,83 +8255,83 @@
       <c r="B103">
         <v>2</v>
       </c>
-      <c r="C103" s="163" t="s">
+      <c r="C103" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="D103" s="163"/>
-      <c r="E103" s="163"/>
-      <c r="F103" s="163"/>
-      <c r="G103" s="163"/>
-      <c r="H103" s="163"/>
-      <c r="I103" s="163"/>
-      <c r="J103" s="163"/>
-      <c r="K103" s="163"/>
-      <c r="L103" s="163"/>
-      <c r="M103" s="163"/>
-      <c r="N103" s="163"/>
-      <c r="O103" s="163"/>
-      <c r="P103" s="163"/>
-      <c r="Q103" s="163"/>
+      <c r="D103" s="152"/>
+      <c r="E103" s="152"/>
+      <c r="F103" s="152"/>
+      <c r="G103" s="152"/>
+      <c r="H103" s="152"/>
+      <c r="I103" s="152"/>
+      <c r="J103" s="152"/>
+      <c r="K103" s="152"/>
+      <c r="L103" s="152"/>
+      <c r="M103" s="152"/>
+      <c r="N103" s="152"/>
+      <c r="O103" s="152"/>
+      <c r="P103" s="152"/>
+      <c r="Q103" s="152"/>
       <c r="R103" s="16"/>
       <c r="S103" s="16"/>
-      <c r="T103" s="153"/>
-      <c r="U103" s="153"/>
-      <c r="V103" s="153"/>
-      <c r="W103" s="153"/>
+      <c r="T103" s="151"/>
+      <c r="U103" s="151"/>
+      <c r="V103" s="151"/>
+      <c r="W103" s="151"/>
     </row>
     <row r="104" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="27">
         <v>3.5</v>
       </c>
-      <c r="C104" s="152" t="s">
+      <c r="C104" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="D104" s="153"/>
-      <c r="E104" s="153"/>
-      <c r="F104" s="153"/>
-      <c r="G104" s="153"/>
-      <c r="H104" s="153"/>
-      <c r="I104" s="153"/>
-      <c r="J104" s="153"/>
-      <c r="K104" s="153"/>
-      <c r="L104" s="153"/>
-      <c r="M104" s="153"/>
-      <c r="N104" s="153"/>
-      <c r="O104" s="153"/>
-      <c r="P104" s="153"/>
-      <c r="Q104" s="153"/>
+      <c r="D104" s="151"/>
+      <c r="E104" s="151"/>
+      <c r="F104" s="151"/>
+      <c r="G104" s="151"/>
+      <c r="H104" s="151"/>
+      <c r="I104" s="151"/>
+      <c r="J104" s="151"/>
+      <c r="K104" s="151"/>
+      <c r="L104" s="151"/>
+      <c r="M104" s="151"/>
+      <c r="N104" s="151"/>
+      <c r="O104" s="151"/>
+      <c r="P104" s="151"/>
+      <c r="Q104" s="151"/>
       <c r="R104" s="16"/>
       <c r="S104" s="16"/>
-      <c r="T104" s="153"/>
-      <c r="U104" s="153"/>
-      <c r="V104" s="153"/>
-      <c r="W104" s="153"/>
+      <c r="T104" s="151"/>
+      <c r="U104" s="151"/>
+      <c r="V104" s="151"/>
+      <c r="W104" s="151"/>
     </row>
     <row r="105" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="27">
         <v>0.4</v>
       </c>
-      <c r="C105" s="153"/>
-      <c r="D105" s="153"/>
-      <c r="E105" s="153"/>
-      <c r="F105" s="153"/>
-      <c r="G105" s="153"/>
-      <c r="H105" s="153"/>
-      <c r="I105" s="153"/>
-      <c r="J105" s="153"/>
-      <c r="K105" s="153"/>
-      <c r="L105" s="153"/>
-      <c r="M105" s="153"/>
-      <c r="N105" s="153"/>
-      <c r="O105" s="153"/>
-      <c r="P105" s="153"/>
-      <c r="Q105" s="153"/>
+      <c r="C105" s="151"/>
+      <c r="D105" s="151"/>
+      <c r="E105" s="151"/>
+      <c r="F105" s="151"/>
+      <c r="G105" s="151"/>
+      <c r="H105" s="151"/>
+      <c r="I105" s="151"/>
+      <c r="J105" s="151"/>
+      <c r="K105" s="151"/>
+      <c r="L105" s="151"/>
+      <c r="M105" s="151"/>
+      <c r="N105" s="151"/>
+      <c r="O105" s="151"/>
+      <c r="P105" s="151"/>
+      <c r="Q105" s="151"/>
       <c r="R105" s="16"/>
       <c r="S105" s="16"/>
-      <c r="T105" s="153"/>
-      <c r="U105" s="153"/>
-      <c r="V105" s="153"/>
-      <c r="W105" s="153"/>
+      <c r="T105" s="151"/>
+      <c r="U105" s="151"/>
+      <c r="V105" s="151"/>
+      <c r="W105" s="151"/>
     </row>
     <row r="106" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="27">
@@ -8497,10 +8471,12 @@
         <v>78</v>
       </c>
       <c r="M110" s="16"/>
-      <c r="N110" s="154"/>
-      <c r="O110" s="155"/>
-      <c r="P110" s="155"/>
-      <c r="Q110" s="156"/>
+      <c r="N110" s="163" t="s">
+        <v>134</v>
+      </c>
+      <c r="O110" s="164"/>
+      <c r="P110" s="164"/>
+      <c r="Q110" s="165"/>
       <c r="R110" s="16"/>
       <c r="S110" s="16"/>
       <c r="T110" s="16"/>
@@ -8518,18 +8494,32 @@
       <c r="E111" s="81">
         <v>3.25</v>
       </c>
-      <c r="F111" s="81"/>
-      <c r="G111" s="82"/>
-      <c r="H111" s="81"/>
-      <c r="I111" s="83"/>
-      <c r="J111" s="83"/>
-      <c r="K111" s="83"/>
-      <c r="L111" s="83"/>
+      <c r="F111" s="81">
+        <v>1.61</v>
+      </c>
+      <c r="G111" s="82">
+        <v>0.51</v>
+      </c>
+      <c r="H111" s="81">
+        <v>3.3</v>
+      </c>
+      <c r="I111" s="83">
+        <v>2</v>
+      </c>
+      <c r="J111" s="83">
+        <v>4.5</v>
+      </c>
+      <c r="K111" s="83">
+        <v>0.2</v>
+      </c>
+      <c r="L111" s="83">
+        <v>7.5</v>
+      </c>
       <c r="M111" s="16"/>
-      <c r="N111" s="157"/>
-      <c r="O111" s="158"/>
-      <c r="P111" s="158"/>
-      <c r="Q111" s="159"/>
+      <c r="N111" s="170"/>
+      <c r="O111" s="171"/>
+      <c r="P111" s="171"/>
+      <c r="Q111" s="172"/>
       <c r="R111" s="16"/>
       <c r="S111" s="16"/>
       <c r="T111" s="16"/>
@@ -8543,19 +8533,35 @@
       <c r="D112" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="42"/>
-      <c r="H112" s="65"/>
-      <c r="I112" s="65"/>
-      <c r="J112" s="65"/>
-      <c r="K112" s="65"/>
-      <c r="L112" s="65"/>
+      <c r="E112" s="65">
+        <v>3.35</v>
+      </c>
+      <c r="F112" s="65">
+        <v>1.53</v>
+      </c>
+      <c r="G112" s="42">
+        <v>46</v>
+      </c>
+      <c r="H112" s="65">
+        <v>3.4</v>
+      </c>
+      <c r="I112" s="65">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="J112" s="65">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="K112" s="65">
+        <v>0.2</v>
+      </c>
+      <c r="L112" s="65">
+        <v>7.5</v>
+      </c>
       <c r="M112" s="16"/>
-      <c r="N112" s="157"/>
-      <c r="O112" s="158"/>
-      <c r="P112" s="158"/>
-      <c r="Q112" s="159"/>
+      <c r="N112" s="170"/>
+      <c r="O112" s="171"/>
+      <c r="P112" s="171"/>
+      <c r="Q112" s="172"/>
       <c r="R112" s="16"/>
       <c r="S112" s="16"/>
       <c r="T112" s="16"/>
@@ -8570,19 +8576,35 @@
       <c r="D113" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="E113" s="134"/>
-      <c r="F113" s="134"/>
-      <c r="G113" s="135"/>
-      <c r="H113" s="134"/>
-      <c r="I113" s="134"/>
-      <c r="J113" s="134"/>
-      <c r="K113" s="134"/>
-      <c r="L113" s="134"/>
+      <c r="E113" s="134">
+        <v>3.16</v>
+      </c>
+      <c r="F113" s="134">
+        <v>1.63</v>
+      </c>
+      <c r="G113" s="135">
+        <v>71</v>
+      </c>
+      <c r="H113" s="134">
+        <v>3.3</v>
+      </c>
+      <c r="I113" s="134">
+        <v>1.9</v>
+      </c>
+      <c r="J113" s="134">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K113" s="134">
+        <v>0.3</v>
+      </c>
+      <c r="L113" s="134">
+        <v>7.2</v>
+      </c>
       <c r="M113" s="16"/>
-      <c r="N113" s="157"/>
-      <c r="O113" s="158"/>
-      <c r="P113" s="158"/>
-      <c r="Q113" s="159"/>
+      <c r="N113" s="170"/>
+      <c r="O113" s="171"/>
+      <c r="P113" s="171"/>
+      <c r="Q113" s="172"/>
       <c r="R113" s="16"/>
       <c r="S113" s="16"/>
       <c r="T113" s="16"/>
@@ -8597,19 +8619,35 @@
       <c r="D114" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="E114" s="79"/>
-      <c r="F114" s="79"/>
-      <c r="G114" s="85"/>
-      <c r="H114" s="79"/>
-      <c r="I114" s="79"/>
-      <c r="J114" s="79"/>
-      <c r="K114" s="79"/>
-      <c r="L114" s="79"/>
+      <c r="E114" s="79">
+        <v>3.27</v>
+      </c>
+      <c r="F114" s="79">
+        <v>1.22</v>
+      </c>
+      <c r="G114" s="85">
+        <v>37.369999999999997</v>
+      </c>
+      <c r="H114" s="79">
+        <v>2.95</v>
+      </c>
+      <c r="I114" s="79">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="J114" s="79">
+        <v>5.2</v>
+      </c>
+      <c r="K114" s="79">
+        <v>0.8</v>
+      </c>
+      <c r="L114" s="79">
+        <v>6.6</v>
+      </c>
       <c r="M114" s="16"/>
-      <c r="N114" s="157"/>
-      <c r="O114" s="158"/>
-      <c r="P114" s="158"/>
-      <c r="Q114" s="159"/>
+      <c r="N114" s="170"/>
+      <c r="O114" s="171"/>
+      <c r="P114" s="171"/>
+      <c r="Q114" s="172"/>
       <c r="R114" s="16"/>
       <c r="S114" s="16"/>
       <c r="T114" s="16"/>
@@ -8623,19 +8661,35 @@
       <c r="D115" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="86"/>
-      <c r="H115" s="84"/>
-      <c r="I115" s="84"/>
-      <c r="J115" s="84"/>
-      <c r="K115" s="84"/>
-      <c r="L115" s="84"/>
+      <c r="E115" s="65">
+        <v>2.81</v>
+      </c>
+      <c r="F115" s="65">
+        <v>1.19</v>
+      </c>
+      <c r="G115" s="86">
+        <v>42</v>
+      </c>
+      <c r="H115" s="84">
+        <v>2.95</v>
+      </c>
+      <c r="I115" s="84">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="J115" s="84">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K115" s="84">
+        <v>0.4</v>
+      </c>
+      <c r="L115" s="84">
+        <v>6.3</v>
+      </c>
       <c r="M115" s="16"/>
-      <c r="N115" s="157"/>
-      <c r="O115" s="158"/>
-      <c r="P115" s="158"/>
-      <c r="Q115" s="159"/>
+      <c r="N115" s="170"/>
+      <c r="O115" s="171"/>
+      <c r="P115" s="171"/>
+      <c r="Q115" s="172"/>
       <c r="R115" s="16"/>
       <c r="S115" s="16"/>
       <c r="T115" s="16"/>
@@ -8649,19 +8703,35 @@
       <c r="D116" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="E116" s="65"/>
-      <c r="F116" s="65"/>
-      <c r="G116" s="86"/>
-      <c r="H116" s="84"/>
-      <c r="I116" s="84"/>
-      <c r="J116" s="84"/>
-      <c r="K116" s="84"/>
-      <c r="L116" s="84"/>
+      <c r="E116" s="65">
+        <v>3.52</v>
+      </c>
+      <c r="F116" s="65">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G116" s="86">
+        <v>59</v>
+      </c>
+      <c r="H116" s="84">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I116" s="84">
+        <v>1.675</v>
+      </c>
+      <c r="J116" s="84">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="K116" s="84">
+        <v>0.9</v>
+      </c>
+      <c r="L116" s="84">
+        <v>3.6</v>
+      </c>
       <c r="M116" s="16"/>
-      <c r="N116" s="157"/>
-      <c r="O116" s="158"/>
-      <c r="P116" s="158"/>
-      <c r="Q116" s="159"/>
+      <c r="N116" s="170"/>
+      <c r="O116" s="171"/>
+      <c r="P116" s="171"/>
+      <c r="Q116" s="172"/>
       <c r="R116" s="16"/>
       <c r="S116" s="16"/>
       <c r="T116" s="16"/>
@@ -8675,19 +8745,35 @@
       <c r="D117" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="E117" s="65"/>
-      <c r="F117" s="65"/>
-      <c r="G117" s="86"/>
-      <c r="H117" s="84"/>
-      <c r="I117" s="84"/>
-      <c r="J117" s="84"/>
-      <c r="K117" s="84"/>
-      <c r="L117" s="84"/>
+      <c r="E117" s="65">
+        <v>2.94</v>
+      </c>
+      <c r="F117" s="65">
+        <v>1.4</v>
+      </c>
+      <c r="G117" s="86">
+        <v>48</v>
+      </c>
+      <c r="H117" s="84">
+        <v>2.6</v>
+      </c>
+      <c r="I117" s="84">
+        <v>2.6</v>
+      </c>
+      <c r="J117" s="84">
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="K117" s="84">
+        <v>1.8</v>
+      </c>
+      <c r="L117" s="84">
+        <v>5.8</v>
+      </c>
       <c r="M117" s="16"/>
-      <c r="N117" s="157"/>
-      <c r="O117" s="158"/>
-      <c r="P117" s="158"/>
-      <c r="Q117" s="159"/>
+      <c r="N117" s="170"/>
+      <c r="O117" s="171"/>
+      <c r="P117" s="171"/>
+      <c r="Q117" s="172"/>
       <c r="R117" s="16"/>
       <c r="S117" s="16"/>
       <c r="T117" s="16"/>
@@ -8702,19 +8788,35 @@
       <c r="D118" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E118" s="84"/>
-      <c r="F118" s="84"/>
-      <c r="G118" s="86"/>
-      <c r="H118" s="84"/>
-      <c r="I118" s="84"/>
-      <c r="J118" s="84"/>
-      <c r="K118" s="84"/>
-      <c r="L118" s="84"/>
+      <c r="E118" s="84">
+        <v>3</v>
+      </c>
+      <c r="F118" s="84">
+        <v>4.5</v>
+      </c>
+      <c r="G118" s="86">
+        <v>51</v>
+      </c>
+      <c r="H118" s="84">
+        <v>3.7</v>
+      </c>
+      <c r="I118" s="84">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="J118" s="84">
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="K118" s="84">
+        <v>1</v>
+      </c>
+      <c r="L118" s="84">
+        <v>6.8</v>
+      </c>
       <c r="M118" s="16"/>
-      <c r="N118" s="157"/>
-      <c r="O118" s="158"/>
-      <c r="P118" s="158"/>
-      <c r="Q118" s="159"/>
+      <c r="N118" s="170"/>
+      <c r="O118" s="171"/>
+      <c r="P118" s="171"/>
+      <c r="Q118" s="172"/>
       <c r="R118" s="16"/>
       <c r="S118" s="16"/>
       <c r="T118" s="16"/>
@@ -8728,19 +8830,35 @@
       <c r="D119" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="E119" s="65"/>
-      <c r="F119" s="84"/>
-      <c r="G119" s="86"/>
-      <c r="H119" s="84"/>
-      <c r="I119" s="84"/>
-      <c r="J119" s="84"/>
-      <c r="K119" s="84"/>
-      <c r="L119" s="84"/>
+      <c r="E119" s="65">
+        <v>4.28</v>
+      </c>
+      <c r="F119" s="84">
+        <v>2</v>
+      </c>
+      <c r="G119" s="86">
+        <v>47</v>
+      </c>
+      <c r="H119" s="84">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I119" s="84">
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="J119" s="84">
+        <v>4.55</v>
+      </c>
+      <c r="K119" s="84">
+        <v>3.7</v>
+      </c>
+      <c r="L119" s="84">
+        <v>7.2</v>
+      </c>
       <c r="M119" s="16"/>
-      <c r="N119" s="157"/>
-      <c r="O119" s="158"/>
-      <c r="P119" s="158"/>
-      <c r="Q119" s="159"/>
+      <c r="N119" s="170"/>
+      <c r="O119" s="171"/>
+      <c r="P119" s="171"/>
+      <c r="Q119" s="172"/>
       <c r="R119" s="16"/>
       <c r="S119" s="16"/>
       <c r="T119" s="16"/>
@@ -8754,19 +8872,35 @@
       <c r="D120" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="E120" s="65"/>
-      <c r="F120" s="84"/>
-      <c r="G120" s="86"/>
-      <c r="H120" s="84"/>
-      <c r="I120" s="84"/>
-      <c r="J120" s="84"/>
-      <c r="K120" s="84"/>
-      <c r="L120" s="84"/>
+      <c r="E120" s="65">
+        <v>2.83</v>
+      </c>
+      <c r="F120" s="84">
+        <v>1.49</v>
+      </c>
+      <c r="G120" s="86">
+        <v>53</v>
+      </c>
+      <c r="H120" s="84">
+        <v>3.15</v>
+      </c>
+      <c r="I120" s="84">
+        <v>1.45</v>
+      </c>
+      <c r="J120" s="84">
+        <v>4.3333300000000001</v>
+      </c>
+      <c r="K120" s="84">
+        <v>0.3</v>
+      </c>
+      <c r="L120" s="84">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="M120" s="16"/>
-      <c r="N120" s="157"/>
-      <c r="O120" s="158"/>
-      <c r="P120" s="158"/>
-      <c r="Q120" s="159"/>
+      <c r="N120" s="170"/>
+      <c r="O120" s="171"/>
+      <c r="P120" s="171"/>
+      <c r="Q120" s="172"/>
       <c r="R120" s="16"/>
       <c r="S120" s="16"/>
       <c r="T120" s="16"/>
@@ -8781,19 +8915,35 @@
       <c r="D121" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="E121" s="79"/>
-      <c r="F121" s="79"/>
-      <c r="G121" s="85"/>
-      <c r="H121" s="79"/>
-      <c r="I121" s="79"/>
-      <c r="J121" s="79"/>
-      <c r="K121" s="79"/>
-      <c r="L121" s="79"/>
+      <c r="E121" s="79">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F121" s="79">
+        <v>1.88</v>
+      </c>
+      <c r="G121" s="85">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="H121" s="79">
+        <v>1.9</v>
+      </c>
+      <c r="I121" s="79">
+        <v>1.325</v>
+      </c>
+      <c r="J121" s="79">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="K121" s="79">
+        <v>0.3</v>
+      </c>
+      <c r="L121" s="79">
+        <v>5.3</v>
+      </c>
       <c r="M121" s="16"/>
-      <c r="N121" s="157"/>
-      <c r="O121" s="158"/>
-      <c r="P121" s="158"/>
-      <c r="Q121" s="159"/>
+      <c r="N121" s="170"/>
+      <c r="O121" s="171"/>
+      <c r="P121" s="171"/>
+      <c r="Q121" s="172"/>
       <c r="R121" s="16"/>
       <c r="S121" s="16"/>
       <c r="T121" s="16"/>
@@ -8807,19 +8957,35 @@
       <c r="D122" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="E122" s="65"/>
-      <c r="F122" s="84"/>
-      <c r="G122" s="86"/>
-      <c r="H122" s="84"/>
-      <c r="I122" s="84"/>
-      <c r="J122" s="84"/>
-      <c r="K122" s="84"/>
-      <c r="L122" s="84"/>
+      <c r="E122" s="65">
+        <v>3.79</v>
+      </c>
+      <c r="F122" s="84">
+        <v>1.65</v>
+      </c>
+      <c r="G122" s="86">
+        <v>44</v>
+      </c>
+      <c r="H122" s="84">
+        <v>3.75</v>
+      </c>
+      <c r="I122" s="84">
+        <v>3.15</v>
+      </c>
+      <c r="J122" s="84">
+        <v>4.9249999999999998</v>
+      </c>
+      <c r="K122" s="84">
+        <v>1.3</v>
+      </c>
+      <c r="L122" s="84">
+        <v>6.5</v>
+      </c>
       <c r="M122" s="16"/>
-      <c r="N122" s="157"/>
-      <c r="O122" s="158"/>
-      <c r="P122" s="158"/>
-      <c r="Q122" s="159"/>
+      <c r="N122" s="170"/>
+      <c r="O122" s="171"/>
+      <c r="P122" s="171"/>
+      <c r="Q122" s="172"/>
       <c r="R122" s="16"/>
       <c r="S122" s="16"/>
       <c r="T122" s="16"/>
@@ -8833,19 +8999,35 @@
       <c r="D123" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="E123" s="65"/>
-      <c r="F123" s="84"/>
-      <c r="G123" s="86"/>
-      <c r="H123" s="84"/>
-      <c r="I123" s="84"/>
-      <c r="J123" s="84"/>
-      <c r="K123" s="84"/>
-      <c r="L123" s="84"/>
+      <c r="E123" s="65">
+        <v>3.81</v>
+      </c>
+      <c r="F123" s="84">
+        <v>1.5</v>
+      </c>
+      <c r="G123" s="86">
+        <v>19</v>
+      </c>
+      <c r="H123" s="84">
+        <v>3.45</v>
+      </c>
+      <c r="I123" s="84">
+        <v>2.8250000000000002</v>
+      </c>
+      <c r="J123" s="84">
+        <v>5.05</v>
+      </c>
+      <c r="K123" s="84">
+        <v>1.6</v>
+      </c>
+      <c r="L123" s="84">
+        <v>6.2</v>
+      </c>
       <c r="M123" s="16"/>
-      <c r="N123" s="157"/>
-      <c r="O123" s="158"/>
-      <c r="P123" s="158"/>
-      <c r="Q123" s="159"/>
+      <c r="N123" s="170"/>
+      <c r="O123" s="171"/>
+      <c r="P123" s="171"/>
+      <c r="Q123" s="172"/>
       <c r="R123" s="16"/>
       <c r="S123" s="16"/>
       <c r="T123" s="16"/>
@@ -8859,19 +9041,35 @@
       <c r="D124" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="E124" s="65"/>
-      <c r="F124" s="84"/>
-      <c r="G124" s="86"/>
-      <c r="H124" s="84"/>
-      <c r="I124" s="84"/>
-      <c r="J124" s="84"/>
-      <c r="K124" s="84"/>
-      <c r="L124" s="84"/>
+      <c r="E124" s="65">
+        <v>2.69</v>
+      </c>
+      <c r="F124" s="84">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G124" s="86">
+        <v>43</v>
+      </c>
+      <c r="H124" s="84">
+        <v>2.6</v>
+      </c>
+      <c r="I124" s="84">
+        <v>1.875</v>
+      </c>
+      <c r="J124" s="84">
+        <v>3.55</v>
+      </c>
+      <c r="K124" s="84">
+        <v>0.9</v>
+      </c>
+      <c r="L124" s="84">
+        <v>4.7</v>
+      </c>
       <c r="M124" s="16"/>
-      <c r="N124" s="157"/>
-      <c r="O124" s="158"/>
-      <c r="P124" s="158"/>
-      <c r="Q124" s="159"/>
+      <c r="N124" s="170"/>
+      <c r="O124" s="171"/>
+      <c r="P124" s="171"/>
+      <c r="Q124" s="172"/>
       <c r="R124" s="16"/>
       <c r="S124" s="16"/>
       <c r="T124" s="16"/>
@@ -8885,19 +9083,35 @@
       <c r="D125" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="E125" s="65"/>
-      <c r="F125" s="84"/>
-      <c r="G125" s="86"/>
-      <c r="H125" s="84"/>
-      <c r="I125" s="84"/>
-      <c r="J125" s="84"/>
-      <c r="K125" s="84"/>
-      <c r="L125" s="84"/>
+      <c r="E125" s="65">
+        <v>3.18</v>
+      </c>
+      <c r="F125" s="84">
+        <v>1.45</v>
+      </c>
+      <c r="G125" s="86">
+        <v>46</v>
+      </c>
+      <c r="H125" s="84">
+        <v>3.3</v>
+      </c>
+      <c r="I125" s="84">
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="J125" s="84">
+        <v>3.875</v>
+      </c>
+      <c r="K125" s="84">
+        <v>0.6</v>
+      </c>
+      <c r="L125" s="84">
+        <v>5.4</v>
+      </c>
       <c r="M125" s="16"/>
-      <c r="N125" s="157"/>
-      <c r="O125" s="158"/>
-      <c r="P125" s="158"/>
-      <c r="Q125" s="159"/>
+      <c r="N125" s="170"/>
+      <c r="O125" s="171"/>
+      <c r="P125" s="171"/>
+      <c r="Q125" s="172"/>
       <c r="R125" s="16"/>
       <c r="S125" s="16"/>
       <c r="T125" s="16"/>
@@ -8911,19 +9125,35 @@
       <c r="D126" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="E126" s="65"/>
-      <c r="F126" s="84"/>
-      <c r="G126" s="86"/>
-      <c r="H126" s="84"/>
-      <c r="I126" s="84"/>
-      <c r="J126" s="84"/>
-      <c r="K126" s="84"/>
-      <c r="L126" s="84"/>
+      <c r="E126" s="65">
+        <v>2.9</v>
+      </c>
+      <c r="F126" s="84">
+        <v>1.56</v>
+      </c>
+      <c r="G126" s="86">
+        <v>54</v>
+      </c>
+      <c r="H126" s="84">
+        <v>2.9</v>
+      </c>
+      <c r="I126" s="84">
+        <v>1.8</v>
+      </c>
+      <c r="J126" s="84">
+        <v>4.0750000000000002</v>
+      </c>
+      <c r="K126" s="84">
+        <v>0.8</v>
+      </c>
+      <c r="L126" s="84">
+        <v>5.3</v>
+      </c>
       <c r="M126" s="16"/>
-      <c r="N126" s="160"/>
-      <c r="O126" s="161"/>
-      <c r="P126" s="161"/>
-      <c r="Q126" s="162"/>
+      <c r="N126" s="166"/>
+      <c r="O126" s="167"/>
+      <c r="P126" s="167"/>
+      <c r="Q126" s="168"/>
       <c r="R126" s="16"/>
       <c r="S126" s="16"/>
       <c r="T126" s="16"/>
@@ -8937,14 +9167,30 @@
       <c r="D127" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="E127" s="65"/>
-      <c r="F127" s="84"/>
-      <c r="G127" s="86"/>
-      <c r="H127" s="84"/>
-      <c r="I127" s="84"/>
-      <c r="J127" s="84"/>
-      <c r="K127" s="84"/>
-      <c r="L127" s="84"/>
+      <c r="E127" s="65">
+        <v>1.91</v>
+      </c>
+      <c r="F127" s="84">
+        <v>1.35</v>
+      </c>
+      <c r="G127" s="86">
+        <v>71</v>
+      </c>
+      <c r="H127" s="84">
+        <v>1.85</v>
+      </c>
+      <c r="I127" s="84">
+        <v>0.85</v>
+      </c>
+      <c r="J127" s="84">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K127" s="84">
+        <v>0.4</v>
+      </c>
+      <c r="L127" s="84">
+        <v>4.5</v>
+      </c>
       <c r="M127" s="94"/>
       <c r="N127" s="16"/>
       <c r="O127" s="16"/>
@@ -8991,14 +9237,38 @@
       <c r="D129" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="E129" s="136"/>
-      <c r="F129" s="137"/>
-      <c r="G129" s="137"/>
-      <c r="H129" s="136"/>
-      <c r="I129" s="136"/>
-      <c r="J129" s="136"/>
-      <c r="K129" s="136"/>
-      <c r="L129" s="136"/>
+      <c r="E129" s="169">
+        <f>MIN(E111:E127)</f>
+        <v>1.91</v>
+      </c>
+      <c r="F129" s="169">
+        <f t="shared" ref="F129:L129" si="25">MIN(F111:F127)</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G129" s="169">
+        <f t="shared" si="25"/>
+        <v>0.51</v>
+      </c>
+      <c r="H129" s="169">
+        <f t="shared" si="25"/>
+        <v>1.85</v>
+      </c>
+      <c r="I129" s="169">
+        <f t="shared" si="25"/>
+        <v>0.85</v>
+      </c>
+      <c r="J129" s="169">
+        <f t="shared" si="25"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K129" s="169">
+        <f t="shared" si="25"/>
+        <v>0.2</v>
+      </c>
+      <c r="L129" s="169">
+        <f t="shared" si="25"/>
+        <v>3.6</v>
+      </c>
       <c r="M129" s="94"/>
       <c r="N129" s="94"/>
       <c r="O129" s="94"/>
@@ -9018,14 +9288,38 @@
       <c r="D130" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="E130" s="136"/>
-      <c r="F130" s="137"/>
-      <c r="G130" s="137"/>
-      <c r="H130" s="136"/>
-      <c r="I130" s="136"/>
-      <c r="J130" s="136"/>
-      <c r="K130" s="136"/>
-      <c r="L130" s="136"/>
+      <c r="E130" s="169">
+        <f>MAX(E111:E127)</f>
+        <v>4.28</v>
+      </c>
+      <c r="F130" s="169">
+        <f t="shared" ref="F130:L130" si="26">MAX(F111:F127)</f>
+        <v>4.5</v>
+      </c>
+      <c r="G130" s="169">
+        <f t="shared" si="26"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="H130" s="169">
+        <f t="shared" si="26"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I130" s="169">
+        <f t="shared" si="26"/>
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="J130" s="169">
+        <f t="shared" si="26"/>
+        <v>5.2</v>
+      </c>
+      <c r="K130" s="169">
+        <f t="shared" si="26"/>
+        <v>3.7</v>
+      </c>
+      <c r="L130" s="169">
+        <f t="shared" si="26"/>
+        <v>7.5</v>
+      </c>
       <c r="M130" s="113"/>
       <c r="N130" s="113"/>
       <c r="O130" s="113"/>
